--- a/jasmine test.xlsx
+++ b/jasmine test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JiaWeiWei\Desktop\full stack study\milestone\milestone2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vvdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEE029B-9ADD-4D3A-AA24-FB67F69D8A02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9414170-D82C-41DB-91E6-BADA7E9267B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,50 +588,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>101</xdr:col>
-      <xdr:colOff>31276</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>96800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF960E7-D09A-4683-BEDF-835B212CE0B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="158750" y="8356600"/>
-          <a:ext cx="15906276" cy="7920000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
